--- a/Trying auto refresh data.xlsx
+++ b/Trying auto refresh data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amylo\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amylo\Documents\BI-Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC761D2A-759E-4801-A17A-102F54A37A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBDCEA-3BC0-4DA2-AC2B-9AFC40D9B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973288C3-0B15-415F-B2CB-D2D0CF5494FC}"/>
   </bookViews>
@@ -132,14 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803F504-52A7-4A72-9CBF-870A31336B7C}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +474,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -504,7 +503,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -515,7 +514,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,7 +542,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>1980</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="2">
         <v>371.9</v>
@@ -572,7 +571,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>1981</v>
+        <v>2028</v>
       </c>
       <c r="B5" s="3">
         <v>431.5</v>
@@ -601,7 +600,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>1982</v>
+        <v>2029</v>
       </c>
       <c r="B6" s="2">
         <v>474.1</v>
@@ -630,7 +629,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>1983</v>
+        <v>2030</v>
       </c>
       <c r="B7" s="3">
         <v>528.6</v>
@@ -659,7 +658,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>1984</v>
+        <v>2031</v>
       </c>
       <c r="B8" s="2">
         <v>568.6</v>
@@ -688,7 +687,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>1985</v>
+        <v>2032</v>
       </c>
       <c r="B9" s="3">
         <v>617.4</v>
@@ -717,7 +716,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>1986</v>
+        <v>2033</v>
       </c>
       <c r="B10" s="2">
         <v>659.9</v>
@@ -746,7 +745,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>1987</v>
+        <v>2034</v>
       </c>
       <c r="B11" s="3">
         <v>703</v>
@@ -775,7 +774,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>1988</v>
+        <v>2035</v>
       </c>
       <c r="B12" s="2">
         <v>797.9</v>
@@ -804,7 +803,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>1989</v>
+        <v>2036</v>
       </c>
       <c r="B13" s="3">
         <v>878.5</v>
@@ -833,7 +832,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>1990</v>
+        <v>2037</v>
       </c>
       <c r="B14" s="2">
         <v>961.8</v>
@@ -862,7 +861,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
-        <v>1991</v>
+        <v>2038</v>
       </c>
       <c r="B15" s="3">
         <v>1004.8</v>
@@ -891,7 +890,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>1992</v>
+        <v>2039</v>
       </c>
       <c r="B16" s="2">
         <v>1084.0999999999999</v>
@@ -920,7 +919,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>1993</v>
+        <v>2040</v>
       </c>
       <c r="B17" s="3">
         <v>1162.5</v>
@@ -949,7 +948,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>1994</v>
+        <v>2041</v>
       </c>
       <c r="B18" s="2">
         <v>1266.4000000000001</v>
@@ -978,7 +977,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>1995</v>
+        <v>2042</v>
       </c>
       <c r="B19" s="3">
         <v>1390.8</v>
@@ -1007,7 +1006,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>1996</v>
+        <v>2043</v>
       </c>
       <c r="B20" s="2">
         <v>1523.2</v>
@@ -1036,7 +1035,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>1997</v>
+        <v>2044</v>
       </c>
       <c r="B21" s="3">
         <v>1612.3</v>
@@ -1065,7 +1064,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>1998</v>
+        <v>2045</v>
       </c>
       <c r="B22" s="2">
         <v>1731.2</v>
@@ -1094,7 +1093,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>1999</v>
+        <v>2046</v>
       </c>
       <c r="B23" s="3">
         <v>1904.2</v>
@@ -1123,7 +1122,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>2000</v>
+        <v>2047</v>
       </c>
       <c r="B24" s="2">
         <v>2024.7</v>
@@ -1152,7 +1151,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>2001</v>
+        <v>2048</v>
       </c>
       <c r="B25" s="3">
         <v>2172.6999999999998</v>
@@ -1181,7 +1180,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>2002</v>
+        <v>2049</v>
       </c>
       <c r="B26" s="2">
         <v>2292.8000000000002</v>
@@ -1210,7 +1209,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>2003</v>
+        <v>2050</v>
       </c>
       <c r="B27" s="3">
         <v>2523.8000000000002</v>
@@ -1239,7 +1238,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>2004</v>
+        <v>2051</v>
       </c>
       <c r="B28" s="2">
         <v>2795</v>
@@ -1268,7 +1267,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
-        <v>2005</v>
+        <v>2052</v>
       </c>
       <c r="B29" s="3">
         <v>3150.3</v>
@@ -1297,7 +1296,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>2006</v>
+        <v>2053</v>
       </c>
       <c r="B30" s="2">
         <v>3548.3</v>
@@ -1326,7 +1325,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>2007</v>
+        <v>2054</v>
       </c>
       <c r="B31" s="3">
         <v>4001.4</v>
@@ -1355,7 +1354,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>2008</v>
+        <v>2055</v>
       </c>
       <c r="B32" s="2">
         <v>4236.8</v>
@@ -1384,7 +1383,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>2009</v>
+        <v>2056</v>
       </c>
       <c r="B33" s="3">
         <v>4625.5</v>
@@ -1413,7 +1412,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>2010</v>
+        <v>2057</v>
       </c>
       <c r="B34" s="2">
         <v>5161.3999999999996</v>
@@ -1442,7 +1441,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
-        <v>2011</v>
+        <v>2058</v>
       </c>
       <c r="B35" s="3">
         <v>5618.4</v>
@@ -1471,7 +1470,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>2012</v>
+        <v>2059</v>
       </c>
       <c r="B36" s="2">
         <v>6153.2</v>
@@ -1500,7 +1499,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>2013</v>
+        <v>2060</v>
       </c>
       <c r="B37" s="3">
         <v>6477.5</v>
@@ -1529,7 +1528,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>2014</v>
+        <v>2061</v>
       </c>
       <c r="B38" s="2">
         <v>6781</v>
@@ -1558,7 +1557,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>2015</v>
+        <v>2062</v>
       </c>
       <c r="B39" s="3">
         <v>7159.8</v>
@@ -1587,7 +1586,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>2016</v>
+        <v>2063</v>
       </c>
       <c r="B40" s="2">
         <v>7735</v>
@@ -1616,7 +1615,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
-        <v>2017</v>
+        <v>2064</v>
       </c>
       <c r="B41" s="3">
         <v>8276.9</v>
@@ -1645,7 +1644,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>2018</v>
+        <v>2065</v>
       </c>
       <c r="B42" s="2">
         <v>9023</v>
@@ -1674,7 +1673,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
-        <v>2019</v>
+        <v>2066</v>
       </c>
       <c r="B43" s="3">
         <v>9540.4</v>
@@ -1703,7 +1702,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>2020</v>
+        <v>2067</v>
       </c>
       <c r="B44" s="2">
         <v>9101.2999999999993</v>
@@ -1732,7 +1731,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
-        <v>2021</v>
+        <v>2068</v>
       </c>
       <c r="B45" s="3">
         <v>10370.799999999999</v>
@@ -1761,7 +1760,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>2022</v>
+        <v>2069</v>
       </c>
       <c r="B46" s="2">
         <v>11855.4</v>
@@ -1790,7 +1789,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
-        <v>2023</v>
+        <v>2070</v>
       </c>
       <c r="B47" s="3">
         <v>13033.4</v>
@@ -1819,7 +1818,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>2024</v>
+        <v>2071</v>
       </c>
       <c r="B48" s="2">
         <v>14165.5</v>
@@ -1848,7 +1847,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
-        <v>2025</v>
+        <v>2072</v>
       </c>
       <c r="B49" s="3">
         <v>15330.6</v>
@@ -1877,7 +1876,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>2026</v>
+        <v>2073</v>
       </c>
       <c r="B50" s="2">
         <v>16563.8</v>
@@ -1906,7 +1905,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>2027</v>
+        <v>2074</v>
       </c>
       <c r="B51" s="3">
         <v>17877</v>

--- a/Trying auto refresh data.xlsx
+++ b/Trying auto refresh data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amylo\Documents\BI-Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBDCEA-3BC0-4DA2-AC2B-9AFC40D9B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3177F4E-8543-4D72-B69D-01D4542577D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973288C3-0B15-415F-B2CB-D2D0CF5494FC}"/>
   </bookViews>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803F504-52A7-4A72-9CBF-870A31336B7C}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,9 +541,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2027</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>371.9</v>
       </c>
@@ -570,9 +568,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2028</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>431.5</v>
       </c>
@@ -599,9 +595,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2029</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>474.1</v>
       </c>
@@ -628,9 +622,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>2030</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>528.6</v>
       </c>
@@ -657,9 +649,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2031</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>568.6</v>
       </c>
@@ -686,9 +676,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>2032</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>617.4</v>
       </c>
@@ -715,9 +703,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2033</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>659.9</v>
       </c>
@@ -744,9 +730,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>2034</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>703</v>
       </c>
@@ -773,9 +757,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2035</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>797.9</v>
       </c>
@@ -802,9 +784,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>2036</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>878.5</v>
       </c>
@@ -831,9 +811,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2037</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>961.8</v>
       </c>
@@ -860,9 +838,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>2038</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1004.8</v>
       </c>
@@ -889,9 +865,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2039</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>1084.0999999999999</v>
       </c>
@@ -918,9 +892,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>2040</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1162.5</v>
       </c>
@@ -947,9 +919,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2041</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>1266.4000000000001</v>
       </c>
@@ -976,9 +946,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>2042</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1390.8</v>
       </c>
@@ -1005,9 +973,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2043</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>1523.2</v>
       </c>
@@ -1034,9 +1000,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>2044</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1612.3</v>
       </c>
@@ -1063,9 +1027,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2045</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>1731.2</v>
       </c>
@@ -1092,9 +1054,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>2046</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1904.2</v>
       </c>
@@ -1121,9 +1081,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2047</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>2024.7</v>
       </c>
@@ -1150,9 +1108,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>2048</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>2172.6999999999998</v>
       </c>
@@ -1179,9 +1135,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>2049</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>2292.8000000000002</v>
       </c>
@@ -1208,9 +1162,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>2050</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>2523.8000000000002</v>
       </c>
@@ -1237,9 +1189,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>2051</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>2795</v>
       </c>
@@ -1266,9 +1216,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>2052</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>3150.3</v>
       </c>
@@ -1295,9 +1243,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2053</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>3548.3</v>
       </c>
@@ -1324,9 +1270,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>2054</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>4001.4</v>
       </c>
@@ -1353,9 +1297,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2055</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>4236.8</v>
       </c>
@@ -1382,9 +1324,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>2056</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>4625.5</v>
       </c>
@@ -1411,9 +1351,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2057</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>5161.3999999999996</v>
       </c>
@@ -1440,9 +1378,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>2058</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>5618.4</v>
       </c>
@@ -1469,9 +1405,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2059</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>6153.2</v>
       </c>
@@ -1498,9 +1432,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>2060</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>6477.5</v>
       </c>
@@ -1527,9 +1459,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>2061</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>6781</v>
       </c>
@@ -1556,9 +1486,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>2062</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>7159.8</v>
       </c>
@@ -1585,9 +1513,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>2063</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>7735</v>
       </c>
@@ -1614,9 +1540,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>2064</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>8276.9</v>
       </c>
@@ -1643,9 +1567,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>2065</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>9023</v>
       </c>
@@ -1672,9 +1594,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>2066</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>9540.4</v>
       </c>
@@ -1701,9 +1621,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>2067</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>9101.2999999999993</v>
       </c>
@@ -1730,9 +1648,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>2068</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>10370.799999999999</v>
       </c>
@@ -1759,9 +1675,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>2069</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>11855.4</v>
       </c>
@@ -1788,9 +1702,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>2070</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>13033.4</v>
       </c>
@@ -1817,9 +1729,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>2071</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>14165.5</v>
       </c>
@@ -1846,9 +1756,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>2072</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>15330.6</v>
       </c>
@@ -1875,9 +1783,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>2073</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>16563.8</v>
       </c>
@@ -1904,9 +1810,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>2074</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>17877</v>
       </c>

--- a/Trying auto refresh data.xlsx
+++ b/Trying auto refresh data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amylo\Documents\BI-Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3177F4E-8543-4D72-B69D-01D4542577D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9D02A-B610-44C0-A2F9-0BF37F4B39AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973288C3-0B15-415F-B2CB-D2D0CF5494FC}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A51"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>2017</v>
+      </c>
       <c r="B4" s="2">
         <v>371.9</v>
       </c>
@@ -568,7 +570,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>2018</v>
+      </c>
       <c r="B5" s="3">
         <v>431.5</v>
       </c>
@@ -595,7 +599,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>2019</v>
+      </c>
       <c r="B6" s="2">
         <v>474.1</v>
       </c>
@@ -622,7 +628,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>2020</v>
+      </c>
       <c r="B7" s="3">
         <v>528.6</v>
       </c>
@@ -649,7 +657,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
       <c r="B8" s="2">
         <v>568.6</v>
       </c>
@@ -676,7 +686,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
       <c r="B9" s="3">
         <v>617.4</v>
       </c>
@@ -703,7 +715,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>2023</v>
+      </c>
       <c r="B10" s="2">
         <v>659.9</v>
       </c>
@@ -730,7 +744,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>2024</v>
+      </c>
       <c r="B11" s="3">
         <v>703</v>
       </c>
@@ -757,7 +773,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>2025</v>
+      </c>
       <c r="B12" s="2">
         <v>797.9</v>
       </c>
@@ -784,7 +802,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>2026</v>
+      </c>
       <c r="B13" s="3">
         <v>878.5</v>
       </c>
@@ -811,7 +831,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>2027</v>
+      </c>
       <c r="B14" s="2">
         <v>961.8</v>
       </c>
@@ -838,7 +860,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>2028</v>
+      </c>
       <c r="B15" s="3">
         <v>1004.8</v>
       </c>
@@ -865,7 +889,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>2029</v>
+      </c>
       <c r="B16" s="2">
         <v>1084.0999999999999</v>
       </c>
@@ -892,7 +918,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>2030</v>
+      </c>
       <c r="B17" s="3">
         <v>1162.5</v>
       </c>
@@ -919,7 +947,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>2031</v>
+      </c>
       <c r="B18" s="2">
         <v>1266.4000000000001</v>
       </c>
@@ -946,7 +976,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>2032</v>
+      </c>
       <c r="B19" s="3">
         <v>1390.8</v>
       </c>
@@ -973,7 +1005,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>2033</v>
+      </c>
       <c r="B20" s="2">
         <v>1523.2</v>
       </c>
@@ -1000,7 +1034,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>2034</v>
+      </c>
       <c r="B21" s="3">
         <v>1612.3</v>
       </c>
@@ -1027,7 +1063,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>2035</v>
+      </c>
       <c r="B22" s="2">
         <v>1731.2</v>
       </c>
@@ -1054,7 +1092,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>2036</v>
+      </c>
       <c r="B23" s="3">
         <v>1904.2</v>
       </c>
@@ -1081,7 +1121,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>2037</v>
+      </c>
       <c r="B24" s="2">
         <v>2024.7</v>
       </c>
@@ -1108,7 +1150,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>2038</v>
+      </c>
       <c r="B25" s="3">
         <v>2172.6999999999998</v>
       </c>
@@ -1135,7 +1179,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>2039</v>
+      </c>
       <c r="B26" s="2">
         <v>2292.8000000000002</v>
       </c>
@@ -1162,7 +1208,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>2040</v>
+      </c>
       <c r="B27" s="3">
         <v>2523.8000000000002</v>
       </c>
@@ -1189,7 +1237,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>2041</v>
+      </c>
       <c r="B28" s="2">
         <v>2795</v>
       </c>
@@ -1216,7 +1266,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>2042</v>
+      </c>
       <c r="B29" s="3">
         <v>3150.3</v>
       </c>
@@ -1243,7 +1295,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>2043</v>
+      </c>
       <c r="B30" s="2">
         <v>3548.3</v>
       </c>
@@ -1270,7 +1324,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>2044</v>
+      </c>
       <c r="B31" s="3">
         <v>4001.4</v>
       </c>
@@ -1297,7 +1353,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>2045</v>
+      </c>
       <c r="B32" s="2">
         <v>4236.8</v>
       </c>
@@ -1324,7 +1382,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>2046</v>
+      </c>
       <c r="B33" s="3">
         <v>4625.5</v>
       </c>
@@ -1351,7 +1411,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>2047</v>
+      </c>
       <c r="B34" s="2">
         <v>5161.3999999999996</v>
       </c>
@@ -1378,7 +1440,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>2048</v>
+      </c>
       <c r="B35" s="3">
         <v>5618.4</v>
       </c>
@@ -1405,7 +1469,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>2049</v>
+      </c>
       <c r="B36" s="2">
         <v>6153.2</v>
       </c>
@@ -1432,7 +1498,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>2050</v>
+      </c>
       <c r="B37" s="3">
         <v>6477.5</v>
       </c>
@@ -1459,7 +1527,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>2051</v>
+      </c>
       <c r="B38" s="2">
         <v>6781</v>
       </c>
@@ -1486,7 +1556,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>2052</v>
+      </c>
       <c r="B39" s="3">
         <v>7159.8</v>
       </c>
@@ -1513,7 +1585,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>2053</v>
+      </c>
       <c r="B40" s="2">
         <v>7735</v>
       </c>
@@ -1540,7 +1614,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3">
+        <v>2054</v>
+      </c>
       <c r="B41" s="3">
         <v>8276.9</v>
       </c>
@@ -1567,7 +1643,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>2055</v>
+      </c>
       <c r="B42" s="2">
         <v>9023</v>
       </c>
@@ -1594,7 +1672,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>2056</v>
+      </c>
       <c r="B43" s="3">
         <v>9540.4</v>
       </c>
@@ -1621,7 +1701,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2">
+        <v>2057</v>
+      </c>
       <c r="B44" s="2">
         <v>9101.2999999999993</v>
       </c>
@@ -1648,7 +1730,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>2058</v>
+      </c>
       <c r="B45" s="3">
         <v>10370.799999999999</v>
       </c>
@@ -1675,7 +1759,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>2059</v>
+      </c>
       <c r="B46" s="2">
         <v>11855.4</v>
       </c>
@@ -1702,7 +1788,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3">
+        <v>2060</v>
+      </c>
       <c r="B47" s="3">
         <v>13033.4</v>
       </c>
@@ -1729,7 +1817,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2">
+        <v>2061</v>
+      </c>
       <c r="B48" s="2">
         <v>14165.5</v>
       </c>
@@ -1756,7 +1846,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3">
+        <v>2062</v>
+      </c>
       <c r="B49" s="3">
         <v>15330.6</v>
       </c>
@@ -1783,7 +1875,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2">
+        <v>2063</v>
+      </c>
       <c r="B50" s="2">
         <v>16563.8</v>
       </c>
@@ -1810,7 +1904,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3">
+        <v>2064</v>
+      </c>
       <c r="B51" s="3">
         <v>17877</v>
       </c>

--- a/Trying auto refresh data.xlsx
+++ b/Trying auto refresh data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amylo\Documents\BI-Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE9D02A-B610-44C0-A2F9-0BF37F4B39AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C49C8-422F-4A44-8EAA-0EF4A28172D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973288C3-0B15-415F-B2CB-D2D0CF5494FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,9 +541,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2017</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>371.9</v>
       </c>
@@ -570,9 +568,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2018</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>431.5</v>
       </c>
@@ -599,9 +595,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2019</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>474.1</v>
       </c>
@@ -628,9 +622,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>2020</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>528.6</v>
       </c>
@@ -657,9 +649,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2021</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>568.6</v>
       </c>
@@ -686,9 +676,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>617.4</v>
       </c>
@@ -715,9 +703,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2023</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>659.9</v>
       </c>
@@ -744,9 +730,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>2024</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>703</v>
       </c>
@@ -773,9 +757,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2025</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>797.9</v>
       </c>
@@ -802,9 +784,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>2026</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>878.5</v>
       </c>
@@ -831,9 +811,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2027</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>961.8</v>
       </c>
@@ -860,9 +838,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>2028</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1004.8</v>
       </c>
@@ -889,9 +865,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2029</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>1084.0999999999999</v>
       </c>
@@ -918,9 +892,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>2030</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1162.5</v>
       </c>
@@ -947,9 +919,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2031</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>1266.4000000000001</v>
       </c>
@@ -976,9 +946,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>2032</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1390.8</v>
       </c>
@@ -1005,9 +973,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2033</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>1523.2</v>
       </c>
@@ -1034,9 +1000,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>2034</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1612.3</v>
       </c>
@@ -1063,9 +1027,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2035</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>1731.2</v>
       </c>
@@ -1092,9 +1054,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>2036</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1904.2</v>
       </c>
@@ -1121,9 +1081,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2037</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>2024.7</v>
       </c>
@@ -1150,9 +1108,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>2038</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>2172.6999999999998</v>
       </c>
@@ -1179,9 +1135,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>2039</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>2292.8000000000002</v>
       </c>
@@ -1208,9 +1162,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>2040</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>2523.8000000000002</v>
       </c>
@@ -1237,9 +1189,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>2041</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>2795</v>
       </c>
@@ -1266,9 +1216,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>2042</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>3150.3</v>
       </c>
@@ -1295,9 +1243,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2043</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>3548.3</v>
       </c>
@@ -1324,9 +1270,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>2044</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>4001.4</v>
       </c>
@@ -1353,9 +1297,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2045</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>4236.8</v>
       </c>
@@ -1382,9 +1324,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>2046</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>4625.5</v>
       </c>
@@ -1411,9 +1351,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2047</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>5161.3999999999996</v>
       </c>
@@ -1440,9 +1378,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>2048</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>5618.4</v>
       </c>
@@ -1469,9 +1405,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2049</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>6153.2</v>
       </c>
@@ -1498,9 +1432,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>2050</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>6477.5</v>
       </c>
@@ -1527,9 +1459,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>2051</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>6781</v>
       </c>
@@ -1556,9 +1486,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>2052</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>7159.8</v>
       </c>
@@ -1585,9 +1513,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>2053</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>7735</v>
       </c>
@@ -1614,9 +1540,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>2054</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>8276.9</v>
       </c>
@@ -1643,9 +1567,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>2055</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>9023</v>
       </c>
@@ -1672,9 +1594,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>2056</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>9540.4</v>
       </c>
@@ -1701,9 +1621,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>2057</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>9101.2999999999993</v>
       </c>
@@ -1730,9 +1648,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>2058</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>10370.799999999999</v>
       </c>
@@ -1759,9 +1675,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>2059</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>11855.4</v>
       </c>
@@ -1788,9 +1702,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>2060</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>13033.4</v>
       </c>
@@ -1817,9 +1729,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>2061</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>14165.5</v>
       </c>
@@ -1846,9 +1756,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>2062</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>15330.6</v>
       </c>
@@ -1875,9 +1783,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>2063</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>16563.8</v>
       </c>
@@ -1904,9 +1810,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>2064</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>17877</v>
       </c>

--- a/Trying auto refresh data.xlsx
+++ b/Trying auto refresh data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amylo\Documents\BI-Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C49C8-422F-4A44-8EAA-0EF4A28172D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48682A7-C692-4CF7-B248-E53D80A74A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973288C3-0B15-415F-B2CB-D2D0CF5494FC}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A51"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>2017</v>
+      </c>
       <c r="B4" s="2">
         <v>371.9</v>
       </c>
@@ -568,7 +570,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>2018</v>
+      </c>
       <c r="B5" s="3">
         <v>431.5</v>
       </c>
@@ -595,7 +599,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>2019</v>
+      </c>
       <c r="B6" s="2">
         <v>474.1</v>
       </c>
@@ -622,7 +628,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3">
+        <v>2020</v>
+      </c>
       <c r="B7" s="3">
         <v>528.6</v>
       </c>
@@ -649,7 +657,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
       <c r="B8" s="2">
         <v>568.6</v>
       </c>
@@ -676,7 +686,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
       <c r="B9" s="3">
         <v>617.4</v>
       </c>
@@ -703,7 +715,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>2023</v>
+      </c>
       <c r="B10" s="2">
         <v>659.9</v>
       </c>
@@ -730,7 +744,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>2024</v>
+      </c>
       <c r="B11" s="3">
         <v>703</v>
       </c>
@@ -757,7 +773,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>2025</v>
+      </c>
       <c r="B12" s="2">
         <v>797.9</v>
       </c>
@@ -784,7 +802,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>2026</v>
+      </c>
       <c r="B13" s="3">
         <v>878.5</v>
       </c>
@@ -811,7 +831,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>2027</v>
+      </c>
       <c r="B14" s="2">
         <v>961.8</v>
       </c>
@@ -838,7 +860,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>2028</v>
+      </c>
       <c r="B15" s="3">
         <v>1004.8</v>
       </c>
@@ -865,7 +889,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>2029</v>
+      </c>
       <c r="B16" s="2">
         <v>1084.0999999999999</v>
       </c>
@@ -892,7 +918,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>2030</v>
+      </c>
       <c r="B17" s="3">
         <v>1162.5</v>
       </c>
@@ -919,7 +947,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>2031</v>
+      </c>
       <c r="B18" s="2">
         <v>1266.4000000000001</v>
       </c>
@@ -946,7 +976,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>2032</v>
+      </c>
       <c r="B19" s="3">
         <v>1390.8</v>
       </c>
@@ -973,7 +1005,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>2033</v>
+      </c>
       <c r="B20" s="2">
         <v>1523.2</v>
       </c>
@@ -1000,7 +1034,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>2034</v>
+      </c>
       <c r="B21" s="3">
         <v>1612.3</v>
       </c>
@@ -1027,7 +1063,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>2035</v>
+      </c>
       <c r="B22" s="2">
         <v>1731.2</v>
       </c>
@@ -1054,7 +1092,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>2036</v>
+      </c>
       <c r="B23" s="3">
         <v>1904.2</v>
       </c>
@@ -1081,7 +1121,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>2037</v>
+      </c>
       <c r="B24" s="2">
         <v>2024.7</v>
       </c>
@@ -1108,7 +1150,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>2038</v>
+      </c>
       <c r="B25" s="3">
         <v>2172.6999999999998</v>
       </c>
@@ -1135,7 +1179,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>2039</v>
+      </c>
       <c r="B26" s="2">
         <v>2292.8000000000002</v>
       </c>
@@ -1162,7 +1208,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>2040</v>
+      </c>
       <c r="B27" s="3">
         <v>2523.8000000000002</v>
       </c>
@@ -1189,7 +1237,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>2041</v>
+      </c>
       <c r="B28" s="2">
         <v>2795</v>
       </c>
@@ -1216,7 +1266,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>2042</v>
+      </c>
       <c r="B29" s="3">
         <v>3150.3</v>
       </c>
@@ -1243,7 +1295,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>2043</v>
+      </c>
       <c r="B30" s="2">
         <v>3548.3</v>
       </c>
@@ -1270,7 +1324,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>2044</v>
+      </c>
       <c r="B31" s="3">
         <v>4001.4</v>
       </c>
@@ -1297,7 +1353,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>2045</v>
+      </c>
       <c r="B32" s="2">
         <v>4236.8</v>
       </c>
@@ -1324,7 +1382,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>2046</v>
+      </c>
       <c r="B33" s="3">
         <v>4625.5</v>
       </c>
@@ -1351,7 +1411,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>2047</v>
+      </c>
       <c r="B34" s="2">
         <v>5161.3999999999996</v>
       </c>
@@ -1378,7 +1440,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>2048</v>
+      </c>
       <c r="B35" s="3">
         <v>5618.4</v>
       </c>
@@ -1405,7 +1469,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2">
+        <v>2049</v>
+      </c>
       <c r="B36" s="2">
         <v>6153.2</v>
       </c>
@@ -1432,7 +1498,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>2050</v>
+      </c>
       <c r="B37" s="3">
         <v>6477.5</v>
       </c>
@@ -1459,7 +1527,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>2051</v>
+      </c>
       <c r="B38" s="2">
         <v>6781</v>
       </c>
@@ -1486,7 +1556,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>2052</v>
+      </c>
       <c r="B39" s="3">
         <v>7159.8</v>
       </c>
@@ -1513,7 +1585,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>2053</v>
+      </c>
       <c r="B40" s="2">
         <v>7735</v>
       </c>
@@ -1540,7 +1614,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3">
+        <v>2054</v>
+      </c>
       <c r="B41" s="3">
         <v>8276.9</v>
       </c>
@@ -1567,7 +1643,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>2055</v>
+      </c>
       <c r="B42" s="2">
         <v>9023</v>
       </c>
@@ -1594,7 +1672,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>2056</v>
+      </c>
       <c r="B43" s="3">
         <v>9540.4</v>
       </c>
@@ -1621,7 +1701,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2">
+        <v>2057</v>
+      </c>
       <c r="B44" s="2">
         <v>9101.2999999999993</v>
       </c>
@@ -1648,7 +1730,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>2058</v>
+      </c>
       <c r="B45" s="3">
         <v>10370.799999999999</v>
       </c>
@@ -1675,7 +1759,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>2059</v>
+      </c>
       <c r="B46" s="2">
         <v>11855.4</v>
       </c>
@@ -1702,7 +1788,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3">
+        <v>2060</v>
+      </c>
       <c r="B47" s="3">
         <v>13033.4</v>
       </c>
@@ -1729,7 +1817,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2">
+        <v>2061</v>
+      </c>
       <c r="B48" s="2">
         <v>14165.5</v>
       </c>
@@ -1756,7 +1846,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3">
+        <v>2062</v>
+      </c>
       <c r="B49" s="3">
         <v>15330.6</v>
       </c>
@@ -1783,7 +1875,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2">
+        <v>2063</v>
+      </c>
       <c r="B50" s="2">
         <v>16563.8</v>
       </c>
@@ -1810,7 +1904,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3">
+        <v>2064</v>
+      </c>
       <c r="B51" s="3">
         <v>17877</v>
       </c>

--- a/Trying auto refresh data.xlsx
+++ b/Trying auto refresh data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amylo\Documents\BI-Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48682A7-C692-4CF7-B248-E53D80A74A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D484F-1E19-4365-84D2-CC86B2CA8719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{973288C3-0B15-415F-B2CB-D2D0CF5494FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -458,7 +458,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,9 +541,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2017</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>371.9</v>
       </c>
@@ -570,9 +568,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2018</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>431.5</v>
       </c>
@@ -599,9 +595,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2019</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>474.1</v>
       </c>
@@ -628,9 +622,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>2020</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>528.6</v>
       </c>
@@ -657,9 +649,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2021</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>568.6</v>
       </c>
@@ -686,9 +676,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>617.4</v>
       </c>
@@ -715,9 +703,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2023</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>659.9</v>
       </c>
@@ -744,9 +730,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>2024</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>703</v>
       </c>
@@ -773,9 +757,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2025</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>797.9</v>
       </c>
@@ -802,9 +784,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>2026</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>878.5</v>
       </c>
@@ -831,9 +811,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2027</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>961.8</v>
       </c>
@@ -860,9 +838,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>2028</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1004.8</v>
       </c>
@@ -889,9 +865,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2029</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>1084.0999999999999</v>
       </c>
@@ -918,9 +892,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>2030</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1162.5</v>
       </c>
@@ -947,9 +919,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2031</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>1266.4000000000001</v>
       </c>
@@ -976,9 +946,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>2032</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1390.8</v>
       </c>
@@ -1005,9 +973,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2033</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>1523.2</v>
       </c>
@@ -1034,9 +1000,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>2034</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1612.3</v>
       </c>
@@ -1063,9 +1027,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2035</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>1731.2</v>
       </c>
@@ -1092,9 +1054,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>2036</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1904.2</v>
       </c>
@@ -1121,9 +1081,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2037</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>2024.7</v>
       </c>
@@ -1150,9 +1108,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>2038</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>2172.6999999999998</v>
       </c>
@@ -1179,9 +1135,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>2039</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>2292.8000000000002</v>
       </c>
@@ -1208,9 +1162,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>2040</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>2523.8000000000002</v>
       </c>
@@ -1237,9 +1189,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>2041</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>2795</v>
       </c>
@@ -1266,9 +1216,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>2042</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>3150.3</v>
       </c>
@@ -1295,9 +1243,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>2043</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>3548.3</v>
       </c>
@@ -1324,9 +1270,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>2044</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>4001.4</v>
       </c>
@@ -1353,9 +1297,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>2045</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>4236.8</v>
       </c>
@@ -1382,9 +1324,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>2046</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>4625.5</v>
       </c>
@@ -1411,9 +1351,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>2047</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>5161.3999999999996</v>
       </c>
@@ -1440,9 +1378,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>2048</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>5618.4</v>
       </c>
@@ -1469,9 +1405,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>2049</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>6153.2</v>
       </c>
@@ -1498,9 +1432,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <v>2050</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>6477.5</v>
       </c>
@@ -1527,9 +1459,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>2051</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>6781</v>
       </c>
@@ -1556,9 +1486,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>2052</v>
-      </c>
+      <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>7159.8</v>
       </c>
@@ -1585,9 +1513,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>2053</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>7735</v>
       </c>
@@ -1614,9 +1540,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>2054</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>8276.9</v>
       </c>
@@ -1643,9 +1567,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>2055</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>9023</v>
       </c>
@@ -1672,9 +1594,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>2056</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>9540.4</v>
       </c>
@@ -1701,9 +1621,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>2057</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>9101.2999999999993</v>
       </c>
@@ -1730,9 +1648,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
-        <v>2058</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>10370.799999999999</v>
       </c>
@@ -1759,9 +1675,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>2059</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>11855.4</v>
       </c>
@@ -1788,9 +1702,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>2060</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>13033.4</v>
       </c>
@@ -1817,9 +1729,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>2061</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>14165.5</v>
       </c>
@@ -1846,9 +1756,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
-        <v>2062</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>15330.6</v>
       </c>
@@ -1875,9 +1783,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>2063</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>16563.8</v>
       </c>
@@ -1904,9 +1810,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>2064</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>17877</v>
       </c>
